--- a/data/TestExecution.xlsx
+++ b/data/TestExecution.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRACK\eclipse-workspace\MaruthiAssistance2\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="6075" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Sno</t>
   </si>
@@ -60,13 +55,28 @@
   </si>
   <si>
     <t>ChatBot</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>createnexa1</t>
+  </si>
+  <si>
+    <t>ChatBot2</t>
+  </si>
+  <si>
+    <t>TS_002</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -282,7 +292,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -314,10 +324,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -349,7 +358,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -525,14 +533,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" style="1" customWidth="1"/>
@@ -542,7 +550,7 @@
     <col min="6" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -562,7 +570,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
@@ -580,11 +588,31 @@
       </c>
       <c r="F2" s="7" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
